--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_AnhHongPT.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_AnhHongPT.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Lô 2-21</t>
   </si>
   <si>
-    <t>BT</t>
-  </si>
-  <si>
     <t>Thể</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị có dấu hiệu nước vào, hỏng MCU, module GSM</t>
   </si>
 </sst>
 </file>
@@ -640,6 +640,30 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,32 +679,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1024,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="45"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1105,58 +1105,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1181,23 +1181,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,35 +1209,33 @@
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="38">
         <v>868183038539602</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="M6" s="39"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>19</v>
@@ -1247,7 +1245,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1278,7 +1276,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1307,7 +1305,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1334,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1365,7 +1363,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1392,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1423,7 +1421,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1454,7 +1452,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1481,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1512,7 +1510,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1541,7 +1539,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2771,6 +2769,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2782,13 +2787,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2832,43 +2830,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="45"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2913,58 +2911,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -2989,23 +2987,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="73"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3029,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3062,7 +3060,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3091,7 +3089,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3120,7 +3118,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3149,7 +3147,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3178,7 +3176,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3207,7 +3205,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3238,7 +3236,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3267,7 +3265,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3296,7 +3294,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3325,7 +3323,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4556,6 +4554,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4567,13 +4572,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_AnhHongPT.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_AnhHongPT.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Thiết bị có dấu hiệu nước vào, hỏng MCU, module GSM</t>
+  </si>
+  <si>
+    <t>Khách không nhận lại thiết b ị</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -640,6 +646,30 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,30 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1030,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1105,58 +1111,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1181,23 +1187,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,7 +1213,9 @@
       <c r="B6" s="61">
         <v>44660</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44666</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -1231,21 +1239,25 @@
       <c r="L6" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="P6" s="39" t="s">
         <v>61</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1276,7 +1288,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1305,7 +1317,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1334,7 +1346,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1375,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1392,7 +1404,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1433,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1452,7 +1464,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1481,7 +1493,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1522,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1551,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1657,7 +1669,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1689,7 +1701,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1998,7 +2010,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2126,7 +2138,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2308,7 +2320,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -2769,13 +2781,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2787,6 +2792,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2830,43 +2842,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2911,58 +2923,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -2987,23 +2999,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3029,7 +3041,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3060,7 +3072,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3089,7 +3101,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3118,7 +3130,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3147,7 +3159,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3176,7 +3188,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3205,7 +3217,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3236,7 +3248,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3265,7 +3277,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3294,7 +3306,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3323,7 +3335,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4554,13 +4566,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4572,6 +4577,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
